--- a/public/uploads/Connections.xlsx
+++ b/public/uploads/Connections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anike\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\care system\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B8188-5ED5-4077-A7BB-B94B406D8C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>s_no</t>
   </si>
@@ -64,79 +63,43 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>a@b.com</t>
-  </si>
-  <si>
-    <t>sdfsdfsd</t>
-  </si>
-  <si>
-    <t>asdfasdasd</t>
-  </si>
-  <si>
-    <t>sdfdafs</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>nnndghghj</t>
-  </si>
-  <si>
-    <t>fgfd</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>cgf</t>
-  </si>
-  <si>
-    <t>ggh</t>
-  </si>
-  <si>
-    <t>jghj</t>
-  </si>
-  <si>
-    <t>hjh</t>
-  </si>
-  <si>
-    <t>gjg</t>
-  </si>
-  <si>
-    <t>gj</t>
+    <t>ffgh</t>
+  </si>
+  <si>
+    <t>dgfh</t>
+  </si>
+  <si>
+    <t>dfgf</t>
+  </si>
+  <si>
+    <t>fgfh</t>
+  </si>
+  <si>
+    <t>df@gmail.com</t>
+  </si>
+  <si>
+    <t>gfh</t>
+  </si>
+  <si>
+    <t>dgt</t>
+  </si>
+  <si>
+    <t>ghg</t>
+  </si>
+  <si>
+    <t>fhgf</t>
+  </si>
+  <si>
+    <t>lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -170,7 +133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -512,185 +476,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>9087787878</v>
+      </c>
+      <c r="G2">
+        <v>5677887887</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>7876564556</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="N2">
-        <v>1212</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>5666666666</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3">
-        <v>7676</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0C7F0F4D-0583-4C54-8FCD-6B2DB1687174}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{9A97656B-6019-47DF-8E43-99B76F190133}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:R1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 I1:O1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>